--- a/Ketlexport.xlsx
+++ b/Ketlexport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ThomasHasler/Desktop/Workspace/LKK/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ThomasHasler/Desktop/PDM/Valorization_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25200" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="ketl" sheetId="1" r:id="rId1"/>
@@ -176,6 +176,9 @@
     <t>2014 08 25 [CAS Web Archives] Galatasaray AS v Olympique Lyonnais (CAS 2014 A 3560).pdf</t>
   </si>
   <si>
+    <t>2010 06 01 FC Sion v FIFA + Al-Ahly Sporting Club -- E. v FIFA + Al-Ahly (CAS 2009 A 1880 + 1881) - LKK.pdf</t>
+  </si>
+  <si>
     <t>2012 03 01 Namibia Football Association v CAF (CAS 2011 A 2654) - CAS Bull. 2012 1.pdf</t>
   </si>
   <si>
@@ -459,9 +462,6 @@
   </si>
   <si>
     <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>2010 06 01 FC Sion v FIFA + Al-Ahly Sporting Club -- E. v FIFA + Al-Ahly (CAS 2009 A 1880 + 1881) - LKK.pdf</t>
   </si>
 </sst>
 </file>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -868,55 +868,55 @@
         <v>Open</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="B3" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2010/2010%2006%2001%20FC%20Sion%20v%20FIFA%20%2B%20Al-Ahly%20Sporting%20Club%20--%20E.%20v%20FIFA%20%2B%20Al-Ahly%20%28CAS%202009%20A%201880%20%2B%201881%29%20-%20LKK.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2010/2010%2007%2016%20Nicolo%20Napoli%20v%20SCFC%20Universitatea%20Craiova%20%2B%20RFF%20%28CAS%202009%20A%201974%29%20-%20CAS%20Bull.%202011%201.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2012/2012%2003%2001%20%5BCAS%20Web%20Archives%5D%20Namibia%20Football%20Association%20v%20CAF%20%28CAS%202011%20A%202654%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2012/2012%2003%2001%20Namibia%20Football%20Association%20v%20CAF%20%28CAS%202011%20A%202654%29%20-%20CAS%20Bull.%202012%201.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -928,79 +928,79 @@
         <v>Open</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B8" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2017/2017%2001%2023%20Football%20Association%20of%20Serbia%20v%20UEFA%20%28CAS%202016%20A%204602%29%20-%20CAS%20Bull.%202017%202.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2017/2017%2006%2028%20Paolo%20Barelli%20v%20FINA%20%28CAS%202016%20A%204924%20%2B%204943%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2017/2017%2009%2028%20Jersey%20Football%20Association%20v%20UEFA%20%28CAS%202016%20A%204787%29%20-%20CAS%20Bull.%202018%201.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2018/2018%2003%2006%20FC%20Koper%20v%20Football%20Association%20of%20Slovenia%20%28CAS%202017%20A%205205%29%20-%20CAS%20Bull.%202018%202.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2018/2018%2005%2029%20%5BCAS%20Web%20Archives%5D%20Persepolis%20Football%20Club%20v%20Rizespor%20Futbol%20Yatirimlari%20%28CAS%202017%20A%205359%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2018/2018%2005%2029%20Persepolis%20Football%20Club%20v%20Rizespor%20Futbol%20Yatirimlari%20%28CAS%202017%20A%205359%29%20-%20CAS%20Bull.%202019%201.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1023,30 +1023,30 @@
         <v>Open</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2019/2019%2004%2015%20Football%20Club%20%27Irtysh%27%20v%20Bukari%20Sadat%20%28CAS%202018%20A%205898%29%20-%20CAS%20Bull.%202019%202.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1058,19 +1058,19 @@
         <v>Open</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2019/2019%2004%2030%20Clube%20Atletico%20Mineiro%20v%20Huachipato%20SADP%20%2B%20FIFA%20%28CAS%202018%20A%205838%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1082,19 +1082,19 @@
         <v>Open</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2019/2019%2006%2007%20Club%20Estudiantes%20de%20M%C3%A9rida%20v%20FIFA%20%2B%20Andr%C3%A9s%20Lizardo%20Angulo%20Quinonez%20%28CAS%202018%20A%205799%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1106,19 +1106,19 @@
         <v>Open</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2019/2019%2006%2011%20Nicolas%20Gabriel%20Franco%20v%20FIFA%20%2B%20Sportovni%20Klub%20Slavia%20Praha%20%28CAS%202018%20A%205621%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2019/2019%2006%2025%20Centro%20Atletico%20Fenix%20%2B%20Club%20Atletico%20Boston%20River%20and%20others%20v%20FIFA%20%2B%20CONMEBOL%20%2B%20AUF%20%28CAS%202018%20A%205888%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1153,7 +1153,7 @@
         <v>Open</v>
       </c>
       <c r="C26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1165,7 +1165,7 @@
         <v>Open</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1177,7 +1177,7 @@
         <v>Open</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1189,19 +1189,19 @@
         <v>Open</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2019/2019%2009%2025%20Al%20Shorta%20Sports%20Club%20v%20FIFA%20%2B%20Dalian%20Yifang%20FC%20%28CAS%202019%20A%206233%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1213,42 +1213,42 @@
         <v>Open</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2020/2020%2002%2019%20WADA%20v%20South%20African%20Institute%20for%20Drug-Free%20Sport%20%28SAIDS%29%20%2B%20Ruann%20Visser%20%28CAS%202018%20A%205990%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2020/2020%2005%2004%20%28OP%202020%2001%2024%29%20%5BCAS%20Web%20Archives%5D%20MKE%20Ankarag%C3%BCc%C3%BC%20v%20Johannes%20Hopf%20%28CAS%202019%20A%206646%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C34" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1260,7 +1260,7 @@
         <v>Open</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1272,30 +1272,30 @@
         <v>Open</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2020/2020%2007%2006%20CD%20Union%20Comercio%20SA%20c%20Federacion%20Peruana%20de%20Futbol%20%2B%20Club%20Deportivo%20Universidad%20San%20Martin%20De%20Porres%20SA%20%28TAS%202019%20A%206635%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1307,43 +1307,43 @@
         <v>Open</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B40" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2020/2020%2007%2009%20Sport%20Lisboa%20e%20Benfica-Futebol%20SAD%20v%20Bila%20Ould-Chikh%20%2B%20FC%20Utrecht%20B.V.%20%2B%20FIFA%20%28CAS%202019%20A%206452%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B41" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2020/2020%2007%2024%20%5BCAS%20Web%20Archives%5D%20Cruzeiro%20E.C.%20v%20Ramon%20Dario%20Abila%20%2B%20FIFA%20%28CAS%202019%20A%206422%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2020/2020%2007%2024%20Cruzeiro%20E.C.%20v%20Ramon%20Dario%20Abila%20%2B%20FIFA%20%28CAS%202019%20A%206422%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1355,55 +1355,55 @@
         <v>Open</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2020/2020%2008%2004%20%5BCAS%20Web%20Archives%5D%20Bursaspor%20KD%20v%20Henri%20Gregoire%20Saivet%20%28CAS%202020%20A%206694%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B45" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2020/2020%2008%2004%20%5BCAS%20Web%20Archives%5D%20WADA%20v%20Spanish%20Anti-Doping%20Agency%20%26%20Ibai%20Salas%20Zorrozua%20%28CAS%202019%20A%206226%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2020/2020%2010%2001%20%28OP%202020%2004%2010%29%20%5BCAS%20Web%20Archives%5D%20SK%20Slovan%20Bratislava%20v%20UEFA%20%2B%20KI%20Klaksvik%20%28CAS%202020%20A%207356%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B47" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2020/2020%2010%2001%20%28OP%202020%2009%2004%29%20SK%20Slovan%20Bratislava%20v%20UEFA%20%26%20KI%20Klaksvik%20%28CAS%202020%20A%207356%29%20-%20CAS%20Bull.%202021%201.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1415,7 +1415,7 @@
         <v>Open</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1427,7 +1427,7 @@
         <v>Open</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1439,7 +1439,7 @@
         <v>Open</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1451,7 +1451,7 @@
         <v>Open</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1474,31 +1474,31 @@
         <v>Open</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B54" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2021/2021%2001%2018%20%28OP%202020%2011%2006%29%20Munir%20El%20Haddadi%20%2B%20FRMF%20c%20FIFA%20%2B%20RFEF%20%28TAS%202020%20A%207444%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B55" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2021/2021%2001%2025%20Club%20Atletico%20Independiente%20c%20FIFA%20%2B%20Club%20Am%C3%A9rica%20de%20Cali%20%28TAS%202019%20A%206335%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C55" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1510,19 +1510,19 @@
         <v>Open</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B57" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2021/2021%2003%2008%20Eldar%20Elxan%20Oglu%20Taghizada%20%2B%20Clermont%20Foot%2063%20SASP%20v%20FIFA%20%2B%20RFEF%20%28CAS%202020%20A%207353%20%2B%207354%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1534,19 +1534,19 @@
         <v>Open</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2021/2021%2003%2026%20Asociacion%20Deportivo%20Cali%20c%20Club%20Santiago%20Wanderers%20%2B%20FIFA%20%28TAS%202020%20A%206851%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1558,19 +1558,19 @@
         <v>Open</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B61" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2021/2021%2004%2006%20Lyukman%20Adams%20v%20IAAF%20%28CAS%202019%20A%206161%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,7 +1582,7 @@
         <v>Open</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1593,19 +1593,19 @@
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2021/2021%2004%2030%20Besiktas%20Futbol%20Yatirimlari%20Sanayi%20ve%20Ticaret%20A.S.%20v%20Jos%C3%A9%20Maria%20Gutierrez%20Hernandez%20%2B%20FIFA%20%28CAS%202020%20A%207012%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1617,7 +1617,7 @@
         <v>Open</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1629,7 +1629,7 @@
         <v>Open</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -1641,19 +1641,19 @@
         <v>Open</v>
       </c>
       <c r="C67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B68" t="str">
         <f>HYPERLINK("https://sportsearch.lk-k.com/files?file[]=data/CAS%20filed/2021/2021%2005%2026%20Nilmar%20Honorato%20da%20Silva%20v%20Federation%20Internationale%20de%20Football%20%28CAS%202020%20A%206713%29.pdf", "Open")</f>
         <v>Open</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -1665,7 +1665,7 @@
         <v>Open</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -1721,7 +1721,7 @@
         <v>Open</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>Open</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -1745,7 +1745,7 @@
         <v>Open</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -1757,7 +1757,7 @@
         <v>Open</v>
       </c>
       <c r="C77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -1769,7 +1769,7 @@
         <v>Open</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -1781,7 +1781,7 @@
         <v>Open</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1793,7 +1793,7 @@
         <v>Open</v>
       </c>
       <c r="C80" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -1805,7 +1805,7 @@
         <v>Open</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -1817,7 +1817,7 @@
         <v>Open</v>
       </c>
       <c r="C82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -1829,7 +1829,7 @@
         <v>Open</v>
       </c>
       <c r="C83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
